--- a/data/trans_camb/P34_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-7.593080920912004</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.897596448396417</v>
+        <v>2.897596448396411</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-10.88464579571928</v>
@@ -664,7 +664,7 @@
         <v>-3.828527383385616</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.651235459712592</v>
+        <v>2.651235459712586</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.96520056607564</v>
+        <v>-19.95049459024438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.532859092873839</v>
+        <v>-7.734179397483684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.576403394010582</v>
+        <v>-2.891098612371495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.28038279212222</v>
+        <v>-15.46416711383433</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.08618630216226</v>
+        <v>-15.13741297790316</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.810097628665434</v>
+        <v>-4.420026859976687</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-16.57283781048681</v>
+        <v>-16.1609604314968</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.842968255701424</v>
+        <v>-8.676568626654941</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.047049687471551</v>
+        <v>-2.430280686658024</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.819843674246192</v>
+        <v>-5.928605175428558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.196560771314822</v>
+        <v>6.304219187642259</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.00985013906731</v>
+        <v>9.801530858269521</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.084674576347291</v>
+        <v>0.6208840839906967</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1081888638903661</v>
+        <v>0.04400803903594661</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.06410639894036</v>
+        <v>9.451829494212831</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.143342659198398</v>
+        <v>-5.298626761783734</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.117661452883014</v>
+        <v>1.522350856176842</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.375966152405167</v>
+        <v>7.396141070696717</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.199382114395408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07608623068335631</v>
+        <v>0.07608623068335615</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2564217523499402</v>
@@ -769,7 +769,7 @@
         <v>-0.09019289364046751</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.06245811349590887</v>
+        <v>0.06245811349590873</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3947030416967202</v>
+        <v>-0.4108696567490249</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1549594757546287</v>
+        <v>-0.1540959990066002</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05316205551975006</v>
+        <v>-0.05957004891291228</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.369468510787636</v>
+        <v>-0.3734085208004519</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3492430914373939</v>
+        <v>-0.3652226446317712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09024633428014349</v>
+        <v>-0.1027363623363735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.364826933041444</v>
+        <v>-0.3626896288447075</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2006122738584518</v>
+        <v>-0.196367152363522</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.04633492424909266</v>
+        <v>-0.0560816247782884</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1388749732710739</v>
+        <v>-0.1392485599610528</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1406332904324383</v>
+        <v>0.1488126915250679</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2430681371235922</v>
+        <v>0.2369626422261109</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02981126906044613</v>
+        <v>0.02794219756168629</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.001902002611367515</v>
+        <v>0.001334540088653187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3029811571910737</v>
+        <v>0.2853739954636977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1521420059516564</v>
+        <v>-0.1342742203846818</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02749524152951614</v>
+        <v>0.03745079982131983</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1869014493498448</v>
+        <v>0.185239377581158</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-14.21768753401671</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.929218071690353</v>
+        <v>-1.929218071690342</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-16.0016707800648</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.24995607713293</v>
+        <v>-19.32026451890982</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.54163001925475</v>
+        <v>-12.26545635178812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.34864938818723</v>
+        <v>-10.44211598241439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-27.7366669916042</v>
+        <v>-27.30441153172757</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-22.07060416975127</v>
+        <v>-21.47848661888619</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.015374783190628</v>
+        <v>-8.831174877484084</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-20.92552279108158</v>
+        <v>-20.46818678127128</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-15.01672759416809</v>
+        <v>-14.31240831522221</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.595094285642339</v>
+        <v>-7.825270426379763</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.20058912986779</v>
+        <v>-4.155266918887618</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.408084756640163</v>
+        <v>2.773196914507188</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.218566356105971</v>
+        <v>4.440186983180426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-12.27912434479164</v>
+        <v>-12.55336324294684</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-7.197757029505858</v>
+        <v>-6.347789570253772</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.172072111275675</v>
+        <v>4.707946882732561</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-10.29300559657419</v>
+        <v>-10.13521728564228</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.197639872155676</v>
+        <v>-4.257130672845665</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.460724289772962</v>
+        <v>2.286261652507873</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2665782899152525</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.03617238409511742</v>
+        <v>-0.03617238409511721</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3017174193132524</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3633153889621608</v>
+        <v>-0.350638536042468</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2094602509050993</v>
+        <v>-0.2206369826742769</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.183501664682382</v>
+        <v>-0.1841948579628532</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4911647046480533</v>
+        <v>-0.4891414953847538</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3878698163554218</v>
+        <v>-0.3798411600851215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1412066014216488</v>
+        <v>-0.1547489152790252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3818091183487599</v>
+        <v>-0.3728445748861431</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2688761723048715</v>
+        <v>-0.2572471150070823</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1342723519245349</v>
+        <v>-0.1398792559473573</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1070122098427426</v>
+        <v>-0.08498469636681932</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06768041164392553</v>
+        <v>0.05158556598138338</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.08707612185048863</v>
+        <v>0.09187214570818208</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2452277549599427</v>
+        <v>-0.2516943556224092</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1437290853641782</v>
+        <v>-0.1301421905128947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.105187117864966</v>
+        <v>0.09691375510987334</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2055285894528207</v>
+        <v>-0.2040011707483918</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.08049433622740991</v>
+        <v>-0.0861720457456077</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.04903794974181005</v>
+        <v>0.04543770094846636</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.846397764642353</v>
+        <v>-4.894713775621009</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.375478537073847</v>
+        <v>2.078927045920701</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.23427343276411</v>
+        <v>-1.821154864645554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.627390939941951</v>
+        <v>-4.504273603868884</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5706881168534843</v>
+        <v>0.459241326283127</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.860246454286039</v>
+        <v>2.162248998436478</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.0445013068657</v>
+        <v>-2.733358083814032</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.672962481359046</v>
+        <v>3.409850958745961</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.363877783199007</v>
+        <v>1.444322499395391</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.300671396640816</v>
+        <v>5.283345195767622</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.71800410147786</v>
+        <v>13.02302379401964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.441998250375008</v>
+        <v>9.013326722540834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.38538363248932</v>
+        <v>12.09789578988031</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.77696717545395</v>
+        <v>21.64421301126796</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.84872421320151</v>
+        <v>19.24960254496451</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.559819897810144</v>
+        <v>5.960195566342355</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.16826382170212</v>
+        <v>13.03877279561018</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.22001038047296</v>
+        <v>10.05162983351749</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1974579081088388</v>
+        <v>-0.2049706307269254</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05183275419315408</v>
+        <v>0.08263197979929716</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.07825140252036721</v>
+        <v>-0.07726178905732295</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1820500938364143</v>
+        <v>-0.1755585169073326</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.007695908951800178</v>
+        <v>0.01452462512235287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07356052199688735</v>
+        <v>0.09611086975840663</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1280565061071217</v>
+        <v>-0.1156314106758616</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.156429471978898</v>
+        <v>0.1524984071789295</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.06211144423455208</v>
+        <v>0.06020010462405212</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2785631295846064</v>
+        <v>0.2762646194930117</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6445082246342846</v>
+        <v>0.6831585051303642</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4478479249403611</v>
+        <v>0.4746141903312607</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6927896305270185</v>
+        <v>0.795254590417197</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.238671055946775</v>
+        <v>1.299340191602286</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.195627592463012</v>
+        <v>1.245364099965464</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2881059365300884</v>
+        <v>0.3092076993157051</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6799518650649805</v>
+        <v>0.6841578329270899</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5388420630016851</v>
+        <v>0.5295107712116218</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.436581053745233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.789384996685073</v>
+        <v>-1.789384996685078</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.858357797787733</v>
@@ -1297,7 +1297,7 @@
         <v>1.642365281338134</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.412188189247055</v>
+        <v>2.412188189247061</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-4.145305539821314</v>
@@ -1306,7 +1306,7 @@
         <v>-0.331022480255172</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.9628192695427862</v>
+        <v>-0.9628192695427917</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.515940915456282</v>
+        <v>-8.671743027308629</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.547534154896684</v>
+        <v>-4.38363075412437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.542515536760772</v>
+        <v>-5.500906023417046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.742677089008501</v>
+        <v>-5.863682545441234</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.726831205442361</v>
+        <v>-2.326646999018074</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.287938220923975</v>
+        <v>-1.283104492351664</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.943908435492394</v>
+        <v>-6.918790569425695</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.150784436737236</v>
+        <v>-3.104094922032121</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.666773454721553</v>
+        <v>-3.973590193553227</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.7103750838252457</v>
+        <v>-1.146868862412704</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.286904653167904</v>
+        <v>3.180329401311441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.141091397201763</v>
+        <v>2.169563801931483</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.222714867107652</v>
+        <v>2.047532824658633</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.182370269375119</v>
+        <v>5.66888965200854</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.130085640153085</v>
+        <v>6.270328394566965</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.1795483554669</v>
+        <v>-1.51414181365327</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.52193091451784</v>
+        <v>2.557247296712713</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.038190265574132</v>
+        <v>1.727415133656055</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.01328255842275854</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05444031653546438</v>
+        <v>-0.05444031653546454</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1008642203362506</v>
@@ -1402,7 +1402,7 @@
         <v>0.08914101138472988</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1309239164289864</v>
+        <v>0.1309239164289867</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1502125545552438</v>
@@ -1411,7 +1411,7 @@
         <v>-0.01199519116182821</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.03488947694293965</v>
+        <v>-0.03488947694293985</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2469934103067972</v>
+        <v>-0.249469707372167</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1266920453475695</v>
+        <v>-0.125677502155483</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1589629691296546</v>
+        <v>-0.1581713964076576</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2830438698629745</v>
+        <v>-0.2860853275520871</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1311052565697152</v>
+        <v>-0.1133223090948395</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06702112730016843</v>
+        <v>-0.06010866419060976</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2399077300342044</v>
+        <v>-0.2379788039543006</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1083389445684243</v>
+        <v>-0.1096357922001303</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1260066658422185</v>
+        <v>-0.1341417005164605</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02290985721693061</v>
+        <v>-0.03810204036039677</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1060286544814482</v>
+        <v>0.101716999213633</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0694244845779801</v>
+        <v>0.07084370498084458</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1424048389115128</v>
+        <v>0.1192839267285427</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.372780874392722</v>
+        <v>0.346576438018639</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3758727243268191</v>
+        <v>0.3920670211590956</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.04440476377269857</v>
+        <v>-0.05527742119175179</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09458119379033077</v>
+        <v>0.0993914129469822</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.07884969905459614</v>
+        <v>0.06542242975310937</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.326179859925036</v>
+        <v>-7.406135468085159</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.389468134327736</v>
+        <v>-2.30369964654187</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.43488855856833</v>
+        <v>-10.19989642293621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.530727311351082</v>
+        <v>5.265587694672854</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.700413184543923</v>
+        <v>4.361809151149785</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.35654088405679</v>
+        <v>7.242414624161545</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.666332676092089</v>
+        <v>1.634192724432706</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.265653495391399</v>
+        <v>4.041817343255951</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.84922319635755</v>
+        <v>1.756517920913429</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.037864730810754</v>
+        <v>4.909350455161629</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.762600278253256</v>
+        <v>10.06464416348292</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.642002189729297</v>
+        <v>1.573439033317563</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.55855837323685</v>
+        <v>13.92323322314283</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.77585590604632</v>
+        <v>13.35618432807597</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.96712976321389</v>
+        <v>14.91923802910246</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.996066397483176</v>
+        <v>8.87193280562356</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.28083178313713</v>
+        <v>11.54581048931371</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.790920770474759</v>
+        <v>8.681736365189208</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2583998617443928</v>
+        <v>-0.231974158086566</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07521617978376439</v>
+        <v>-0.07283760830461365</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.327269023830094</v>
+        <v>-0.3202474808864924</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2576973474892911</v>
+        <v>0.2978726242391604</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2712662279949333</v>
+        <v>0.2535050712215831</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4101983687700301</v>
+        <v>0.4133775496694669</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07268834006533786</v>
+        <v>0.07194280196893613</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1901389695353315</v>
+        <v>0.1774487471989311</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.08495161010687251</v>
+        <v>0.07878862715758762</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1644932694635824</v>
+        <v>0.1981898918660011</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4051717891767521</v>
+        <v>0.4192561071405638</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06688987135985588</v>
+        <v>0.06812487935011677</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.053100321923145</v>
+        <v>1.089441285504787</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.095648362962028</v>
+        <v>1.032249871974881</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.208621247864263</v>
+        <v>1.162881339884622</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5065548348905375</v>
+        <v>0.499280199604389</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6440244104898435</v>
+        <v>0.6339775276596545</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4913646621704491</v>
+        <v>0.4746166513389222</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>2.938676413317892</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.293360092606858</v>
+        <v>5.293360092606853</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.164159660000996</v>
@@ -1734,7 +1734,7 @@
         <v>-3.278152394483058</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.126035204930772</v>
+        <v>-3.126035204930777</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-22.67954165921765</v>
+        <v>-22.18249157410508</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-37.59124489496072</v>
+        <v>-37.75025772569502</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-48.06569871889171</v>
+        <v>-48.70269577032548</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.32574722264995</v>
+        <v>-1.961518349007011</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.401566400045486</v>
+        <v>-1.339961637282146</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.8780934517646662</v>
+        <v>1.049236880029935</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.065513936311439</v>
+        <v>-4.844572539788458</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.97833299404578</v>
+        <v>-7.396657846027257</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.265637840555157</v>
+        <v>-7.139299020880683</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-7.362112487417753</v>
+        <v>-7.45286659023146</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-21.97213330492801</v>
+        <v>-22.32824912967204</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-26.29106195895918</v>
+        <v>-27.03770980324419</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.280874673884656</v>
+        <v>6.440523327213948</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.216854240950638</v>
+        <v>6.933859486695926</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.615396201723964</v>
+        <v>9.821496873709149</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.56688585066118</v>
+        <v>2.553158264462784</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.3575420856486337</v>
+        <v>0.486656739174491</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.482279661268725</v>
+        <v>1.063778168598797</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.07503151667279481</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1351522863298574</v>
+        <v>0.1351522863298573</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.02486721045853687</v>
@@ -1839,7 +1839,7 @@
         <v>-0.0700234755675154</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.06677415307599853</v>
+        <v>-0.06677415307599865</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2778616980837812</v>
+        <v>-0.2701919439272265</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4611851703546456</v>
+        <v>-0.4645588934372091</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6105520528430384</v>
+        <v>-0.6078765458001921</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.05728840613193257</v>
+        <v>-0.04791712652036879</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03408353761446366</v>
+        <v>-0.03239217879756012</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02170364592219386</v>
+        <v>0.02504841010999712</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1043765504636127</v>
+        <v>-0.1018722876563403</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1454779969595569</v>
+        <v>-0.1530728208584897</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1524111224833211</v>
+        <v>-0.1504557062159921</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.09768045963773618</v>
+        <v>-0.09912801605406728</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.28869216874069</v>
+        <v>-0.2948434056628371</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3405301507076292</v>
+        <v>-0.3501102400325882</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1705217395341321</v>
+        <v>0.1727198294758016</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1921134057412804</v>
+        <v>0.1854340420316442</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2610224197431716</v>
+        <v>0.2634735406998507</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05753275236928047</v>
+        <v>0.05572571143293822</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.006677929488485636</v>
+        <v>0.01128922093527412</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.03093118430349556</v>
+        <v>0.02209242790539226</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-2.156365138474803</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-3.582325049259438</v>
+        <v>-3.582325049259449</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.888995075675537</v>
@@ -1939,7 +1939,7 @@
         <v>0.03572301215852836</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.134465926439789</v>
+        <v>3.134465926439783</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-4.488748245065382</v>
@@ -1948,7 +1948,7 @@
         <v>-1.054873208937662</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.1691018873127392</v>
+        <v>-0.1691018873127337</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.592990846644209</v>
+        <v>-9.592630763846811</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.581664382908174</v>
+        <v>-4.553337235459016</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.153615741126147</v>
+        <v>-6.155419129794033</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.044023330715722</v>
+        <v>-4.345434214516188</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.185749879369026</v>
+        <v>-2.229691207051955</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.8892984426273052</v>
+        <v>1.035818515148565</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-6.088537941236249</v>
+        <v>-6.074110683900496</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.910477976667107</v>
+        <v>-2.680210691148022</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.841660776345915</v>
+        <v>-1.735615167320669</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-4.805039142920831</v>
+        <v>-5.088490455350452</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.1593156031339045</v>
+        <v>0.128690364316514</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.165980628983802</v>
+        <v>-1.14579651717614</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4497560773464427</v>
+        <v>0.3335839101422187</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.356243731483222</v>
+        <v>2.596683081254501</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.368407362329683</v>
+        <v>5.115210437254243</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.784050231824178</v>
+        <v>-2.723392162111521</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.4605385041584287</v>
+        <v>0.5736662511422532</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.47260047893032</v>
+        <v>1.499730855994645</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.05570591155689779</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.09254308502837894</v>
+        <v>-0.09254308502837921</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.0604128797485971</v>
@@ -2044,7 +2044,7 @@
         <v>0.001142475205775251</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1002448950388941</v>
+        <v>0.1002448950388939</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.128529638555075</v>
@@ -2053,7 +2053,7 @@
         <v>-0.03020496246703962</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.004842019037084762</v>
+        <v>-0.004842019037084603</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.240393463549145</v>
+        <v>-0.240675298629493</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1155994617127769</v>
+        <v>-0.1120790140642567</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.155358602304132</v>
+        <v>-0.1541196946505984</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.123819171715516</v>
+        <v>-0.1330411126389354</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.06781436364677748</v>
+        <v>-0.06837804021116953</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02668326534349314</v>
+        <v>0.0308410431472624</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1700361008736187</v>
+        <v>-0.1703270924680132</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.07883272325285443</v>
+        <v>-0.07430782749206506</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.05124210028233692</v>
+        <v>-0.04889846601973111</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1280951645946687</v>
+        <v>-0.1346622978886017</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.00415189359843697</v>
+        <v>0.003510234894357902</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.03108786342533743</v>
+        <v>-0.03020786473061799</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01559461132886391</v>
+        <v>0.01134102851150287</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.07825217636618975</v>
+        <v>0.08730173861559701</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1783939170620088</v>
+        <v>0.16956828453364</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.08215716246343227</v>
+        <v>-0.08006311193471571</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.01399547673373846</v>
+        <v>0.01725518147342652</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.04290477483020251</v>
+        <v>0.04375947046367778</v>
       </c>
     </row>
     <row r="46">
